--- a/RP_allocation.xlsx
+++ b/RP_allocation.xlsx
@@ -22,16 +22,16 @@
     <t>Allocation</t>
   </si>
   <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>CRM</t>
+    <t>ACWI</t>
+  </si>
+  <si>
+    <t>TIP</t>
+  </si>
+  <si>
+    <t>GSG</t>
+  </si>
+  <si>
+    <t>GVI</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.3119</v>
+        <v>0.0907</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.1423</v>
+        <v>0.2556</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.2648</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.281</v>
+        <v>0.584</v>
       </c>
     </row>
   </sheetData>

--- a/RP_allocation.xlsx
+++ b/RP_allocation.xlsx
@@ -408,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.0907</v>
+        <v>0.0878</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -416,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.2556</v>
+        <v>0.2567</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -424,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0696</v>
+        <v>0.0684</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -432,7 +432,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.584</v>
+        <v>0.587</v>
       </c>
     </row>
   </sheetData>
